--- a/MexE_409_Robotics_2/Laboratory_Activities/2023-2024/Laboratory_1.xlsx
+++ b/MexE_409_Robotics_2/Laboratory_Activities/2023-2024/Laboratory_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Robotics_MEXE_3rdYearCourse\Robotics_2\Laboratory_Activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Robotics_MEXE_3rdYearCourse\MexE_409_Robotics_2\Laboratory_Activities\2023-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD717B-1AB4-4D49-BA88-2EEBC7AF7265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A56ABF-96E3-4F1D-855A-D13B595F9D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D65C2CE3-8512-4348-A0AC-AC1794676AD7}"/>
   </bookViews>
@@ -370,12 +370,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -386,6 +380,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -987,77 +987,77 @@
   <dimension ref="A12:S42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:Q38"/>
+      <selection activeCell="B27" sqref="B27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1079,25 +1079,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="7"/>
@@ -1139,24 +1139,24 @@
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="25" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="7"/>
@@ -1365,39 +1365,39 @@
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
@@ -1439,16 +1439,16 @@
     </row>
     <row r="35" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -1573,6 +1573,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="B39:N39"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O32"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:O36"/>
     <mergeCell ref="B27:O27"/>
     <mergeCell ref="A12:Q12"/>
     <mergeCell ref="A13:Q13"/>
@@ -1585,15 +1594,6 @@
     <mergeCell ref="B23:O23"/>
     <mergeCell ref="B25:O25"/>
     <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B37:O37"/>
-    <mergeCell ref="B39:N39"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O32"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
@@ -1612,71 +1612,71 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1698,25 +1698,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="7"/>
@@ -1758,24 +1758,24 @@
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="25" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="7"/>
@@ -1944,39 +1944,39 @@
     </row>
     <row r="29" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
@@ -2133,12 +2133,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B22:O22"/>
@@ -2151,6 +2145,12 @@
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B36:N36"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="B18:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
